--- a/项目流程.xlsx
+++ b/项目流程.xlsx
@@ -998,6 +998,66 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5238750" y="1304925"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="椭圆 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="1838325"/>
           <a:ext cx="180975" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
